--- a/reports/resnet18_23_no_MMTM/prediction/5/probability_val_5.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/5/probability_val_5.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8045963644981384</v>
+        <v>0.8920770883560181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.195403665304184</v>
+        <v>0.1079228743910789</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2461073994636536</v>
+        <v>0.4276565909385681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7538925409317017</v>
+        <v>0.5723434090614319</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1723779737949371</v>
+        <v>0.2261151373386383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8276219964027405</v>
+        <v>0.7738848328590393</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1150158494710922</v>
+        <v>0.2599150538444519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8849841356277466</v>
+        <v>0.7400849461555481</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4165326952934265</v>
+        <v>0.5777730345726013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5834673047065735</v>
+        <v>0.4222269654273987</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3780620992183685</v>
+        <v>0.6997763514518738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6219378709793091</v>
+        <v>0.300223708152771</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6654349565505981</v>
+        <v>0.8975024223327637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3345650434494019</v>
+        <v>0.1024975627660751</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.101175993680954</v>
+        <v>0.1061083972454071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8988240361213684</v>
+        <v>0.8938915729522705</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1077047139406204</v>
+        <v>0.1430991888046265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8922953009605408</v>
+        <v>0.8569008111953735</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4950692653656006</v>
+        <v>0.7900304198265076</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5049307346343994</v>
+        <v>0.2099695950746536</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.52326899766922</v>
+        <v>0.7228914499282837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.47673100233078</v>
+        <v>0.2771085798740387</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1778808236122131</v>
+        <v>0.2847773432731628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8221191763877869</v>
+        <v>0.7152225971221924</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09370356053113937</v>
+        <v>0.06475132703781128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9062964916229248</v>
+        <v>0.9352487325668335</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07260577380657196</v>
+        <v>0.02794957533478737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9273942112922668</v>
+        <v>0.9720504283905029</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2002747058868408</v>
+        <v>0.4829622805118561</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7997252941131592</v>
+        <v>0.5170376896858215</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2121035754680634</v>
+        <v>0.4933729767799377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7878963947296143</v>
+        <v>0.5066270232200623</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1927214711904526</v>
+        <v>0.4110172390937805</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8072785139083862</v>
+        <v>0.5889827609062195</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06652660667896271</v>
+        <v>0.02595930173993111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9334734082221985</v>
+        <v>0.9740407466888428</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0927969217300415</v>
+        <v>0.08976124227046967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9072030782699585</v>
+        <v>0.9102387428283691</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0487438440322876</v>
+        <v>0.01147983223199844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9512561559677124</v>
+        <v>0.9885202050209045</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08947542309761047</v>
+        <v>0.1133779138326645</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9105245471000671</v>
+        <v>0.8866220712661743</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
